--- a/data/ODcounts_calibration.xlsx
+++ b/data/ODcounts_calibration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="29" documentId="8_{A968F095-A87A-2841-9A24-09983D2FADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F60D01-D4FE-48EC-BABD-CFDD18E524B3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODcounts" sheetId="1" r:id="rId1"/>
@@ -882,17 +882,17 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -963,7 +963,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -980,7 +980,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>15</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>17</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>21</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>25</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>27</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>29</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>31</v>
       </c>
@@ -1203,5 +1203,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>